--- a/biology/Botanique/Kitaibela/Kitaibela.xlsx
+++ b/biology/Botanique/Kitaibela/Kitaibela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kitaibela - est un genre de la famille des Malvaceae originaire d'Europe centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une malvacée a été collectée par Pál Kitaibel, coauteur avec le comte Franz de Paula Adam von Waldstein de l'ouvrage Descriptiones et icones plantarum rariorum.
 C'est en son honneur que Carl Ludwig von Willdenow dénomme le genre et, avec l'échantillon, décrit l'espèce type du genre Kitaibela vitifolia en 1799.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les caractères généraux des Malvacées, ce genre est défini par les caractéristiques suivantes :
 le calice compte six à neuf lobes ;
@@ -579,7 +595,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste est issue des index IPNI et Tropicos en date d'août 2011.
 Kitaibelia balansae Boiss. (1867) - Turquie (Cilicie).
